--- a/spanwise_heterogeneous_heating/Spanwise_heterogeneous_heating_job_ID.xlsx
+++ b/spanwise_heterogeneous_heating/Spanwise_heterogeneous_heating_job_ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chl23026\Nutstore\1\Nutstore\Workspace\convection_time_varying_T\spanwise_heterogeneous_heating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E420DCB-2F32-4D38-AEAF-FAA67589D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B25C6-B05C-45ED-A768-802F0CB3973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNS for mean flow" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Re</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>kz (heterogeneous)</t>
+  </si>
+  <si>
+    <t>Mean flow</t>
+  </si>
+  <si>
+    <t>last snapshot of 21916743</t>
+  </si>
+  <si>
+    <t>last snapshot of 21922119</t>
+  </si>
+  <si>
+    <t>Time average of 21922119</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -548,15 +560,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A1767-8D7E-4047-A2B4-14348F80EB81}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -596,6 +610,9 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
       <c r="N1" t="s">
         <v>19</v>
       </c>
@@ -646,7 +663,98 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21916743</v>
+        <v>21945134</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>96</v>
+      </c>
+      <c r="J3">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21945139</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21947855</v>
+      </c>
+      <c r="B6">
+        <v>350</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.71</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>72</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
